--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1686103.949666914</v>
+        <v>-1690817.860621278</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791246</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13891594.68981843</v>
+        <v>13889234.77225676</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>117.8118092062332</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>329.4376444115741</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,13 +744,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>95.29905430887251</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -795,7 +795,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>35.13685922632835</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>132.3950220032044</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>194.6921370124979</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>110.4955773116495</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>51.85060486254714</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -987,7 +987,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>108.8954510456196</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>50.6435372072244</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1063,19 +1063,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3.844560338614778</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>3.22446488985949</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>174.0354920963825</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>128.6317864664709</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>129.2405072294739</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>76.07295117250706</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372793</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>59.25671390701419</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>18.12732193073145</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993879</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177851</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465762</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442489</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681703</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338907</v>
+        <v>52.598273358447</v>
       </c>
       <c r="I13" t="n">
-        <v>60.685168714561</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>121.9253632698729</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372793</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362806</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>139.4001769312341</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>92.81353317342808</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993879</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177851</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465762</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442489</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681703</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>60.685168714561</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901692</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>105.1409381270356</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>20.81650562234245</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135901</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838894</v>
+        <v>24.17382596574978</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828906</v>
+        <v>52.06849973564991</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431739</v>
+        <v>70.57601873167823</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459979</v>
+        <v>55.72314698196064</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643952</v>
+        <v>41.29686219380037</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931863</v>
+        <v>41.22330424667948</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390859</v>
+        <v>42.97275566644674</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147803</v>
+        <v>53.79159358883888</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805008</v>
+        <v>41.14384575541092</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922201</v>
+        <v>18.98356133658285</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367792</v>
+        <v>9.88205970103877</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920524</v>
+        <v>88.00800320656609</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>607.8495662439052</v>
+        <v>991.2982823888209</v>
       </c>
       <c r="C2" t="n">
-        <v>607.8495662439052</v>
+        <v>991.2982823888209</v>
       </c>
       <c r="D2" t="n">
-        <v>607.8495662439052</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E2" t="n">
-        <v>607.8495662439052</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>593.0031191758704</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059667</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="N2" t="n">
-        <v>1578.706865059667</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606227</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>2017.788228542227</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T2" t="n">
-        <v>1794.287626101644</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="U2" t="n">
-        <v>1794.287626101644</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="V2" t="n">
-        <v>1794.287626101644</v>
+        <v>1695.062614805962</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.287626101644</v>
+        <v>1324.063579774249</v>
       </c>
       <c r="X2" t="n">
-        <v>1404.835021034701</v>
+        <v>991.2982823888209</v>
       </c>
       <c r="Y2" t="n">
-        <v>1008.344311955302</v>
+        <v>991.2982823888209</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813165</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414088</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628891</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.8829133828434</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569814</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>363.2348054569814</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653872</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.27622687548</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467706</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222779</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332.7868169933348</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="C4" t="n">
-        <v>199.0544715355525</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="D4" t="n">
-        <v>199.0544715355525</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475499</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475499</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475499</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>332.7868169933348</v>
+        <v>746.2915450428426</v>
       </c>
       <c r="V4" t="n">
-        <v>332.7868169933348</v>
+        <v>480.3121998636668</v>
       </c>
       <c r="W4" t="n">
-        <v>332.7868169933348</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="X4" t="n">
-        <v>332.7868169933348</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="Y4" t="n">
-        <v>332.7868169933348</v>
+        <v>196.9817977948445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1122.044785381552</v>
+        <v>115.8539810035566</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.044785381552</v>
+        <v>115.8539810035566</v>
       </c>
       <c r="D5" t="n">
-        <v>1122.044785381552</v>
+        <v>115.8539810035566</v>
       </c>
       <c r="E5" t="n">
-        <v>719.4612604980966</v>
+        <v>115.8539810035566</v>
       </c>
       <c r="F5" t="n">
-        <v>302.5668220280744</v>
+        <v>102.9999465739384</v>
       </c>
       <c r="G5" t="n">
-        <v>293.4444705564816</v>
+        <v>93.87759510234565</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>93.87759510234565</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310449</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="M5" t="n">
-        <v>1022.08652506701</v>
+        <v>1193.075989993383</v>
       </c>
       <c r="N5" t="n">
-        <v>1549.897808704472</v>
+        <v>1286.935244793071</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596801</v>
+        <v>1726.9748456854</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737749</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737749</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="U5" t="n">
-        <v>1919.030240172348</v>
+        <v>1614.903139478093</v>
       </c>
       <c r="V5" t="n">
-        <v>1919.030240172348</v>
+        <v>1272.796330181611</v>
       </c>
       <c r="W5" t="n">
-        <v>1919.030240172348</v>
+        <v>901.7972951498987</v>
       </c>
       <c r="X5" t="n">
-        <v>1919.030240172348</v>
+        <v>512.3446900829555</v>
       </c>
       <c r="Y5" t="n">
-        <v>1522.539531092949</v>
+        <v>115.8539810035566</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>832.7972297032359</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>682.1429992633281</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>552.0540318848084</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>415.6075409956961</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>291.1757348788279</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828434</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="M6" t="n">
-        <v>959.915873575022</v>
+        <v>407.9705203262574</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591878</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182859</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>2015.935249535682</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1805.872106214324</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1583.332104585391</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1353.214858718678</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1163.90778106869</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>984.5935641441972</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.0544715355525</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="C7" t="n">
-        <v>199.0544715355525</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="D7" t="n">
-        <v>199.0544715355525</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475499</v>
+        <v>504.0610550882711</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>346.7351203012441</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>178.4810664006896</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>178.4810664006896</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>45.3866410377675</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>941.6856466940251</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>941.6856466940251</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>941.6856466940251</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>656.2468549359261</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>656.2468549359261</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>656.2468549359261</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="X7" t="n">
-        <v>422.1665327189091</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.0544715355525</v>
+        <v>659.6198672290686</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1177.189793764514</v>
+        <v>1371.298257135899</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.189793764514</v>
+        <v>978.1227556388292</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.189793764514</v>
+        <v>592.6816268554969</v>
       </c>
       <c r="E8" t="n">
-        <v>774.606268881058</v>
+        <v>190.0981019720414</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>177.2440675424233</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1937.641433863169</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V8" t="n">
-        <v>1937.641433863169</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W8" t="n">
-        <v>1566.642398831457</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="X8" t="n">
-        <v>1177.189793764514</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="Y8" t="n">
-        <v>1177.189793764514</v>
+        <v>1371.298257135899</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.7721419361088</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>215.5670240020981</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>215.5670240020981</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>215.5670240020981</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>745.9439088256454</v>
+        <v>818.2140257446376</v>
       </c>
       <c r="W10" t="n">
-        <v>462.613506756823</v>
+        <v>534.8836236758152</v>
       </c>
       <c r="X10" t="n">
-        <v>385.7721419361088</v>
+        <v>300.8033014587983</v>
       </c>
       <c r="Y10" t="n">
-        <v>385.7721419361088</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.935942880364</v>
+        <v>1653.0370227692</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.556716529488</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550884</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312599</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654569</v>
+        <v>314.4059029914309</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3046.101118633034</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>2894.396791338645</v>
       </c>
       <c r="U11" t="n">
-        <v>2770.295603492179</v>
+        <v>2894.396791338645</v>
       </c>
       <c r="V11" t="n">
-        <v>2751.985177299522</v>
+        <v>2624.086257188357</v>
       </c>
       <c r="W11" t="n">
-        <v>2751.985177299522</v>
+        <v>2624.086257188357</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.328847378772</v>
+        <v>2306.429927267608</v>
       </c>
       <c r="Y11" t="n">
-        <v>2109.634413445567</v>
+        <v>1981.735493334403</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>494.9732559860694</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.0952099420623</v>
+        <v>563.2443528819574</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542453</v>
+        <v>464.8355100941405</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029538</v>
+        <v>380.9986721428492</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083501</v>
+        <v>297.2361351482456</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675167</v>
+        <v>211.7064755074125</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>115.2486967530519</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5224,25 +5224,25 @@
         <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.71283314325</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1242.555900547419</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>1028.913383935514</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="V13" t="n">
-        <v>1028.913383935514</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="W13" t="n">
-        <v>817.3792570128854</v>
+        <v>990.2559295350504</v>
       </c>
       <c r="X13" t="n">
-        <v>655.0952099420623</v>
+        <v>827.9718824642275</v>
       </c>
       <c r="Y13" t="n">
-        <v>655.0952099420623</v>
+        <v>676.6560964270648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1145.91186289235</v>
+        <v>1780.935942880364</v>
       </c>
       <c r="C14" t="n">
-        <v>1145.91186289235</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D14" t="n">
         <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550884</v>
+        <v>815.124613155088</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312604</v>
+        <v>470.0264498312597</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2870.430845766522</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>2686.474391347314</v>
+        <v>2827.282650873814</v>
       </c>
       <c r="V14" t="n">
-        <v>2416.163857197027</v>
+        <v>2733.53160726429</v>
       </c>
       <c r="W14" t="n">
-        <v>2116.961097311508</v>
+        <v>2434.328847378772</v>
       </c>
       <c r="X14" t="n">
-        <v>1799.304767390758</v>
+        <v>2434.328847378772</v>
       </c>
       <c r="Y14" t="n">
-        <v>1474.610333457553</v>
+        <v>2109.634413445567</v>
       </c>
     </row>
     <row r="15">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.4129340497494</v>
+        <v>558.6374311877008</v>
       </c>
       <c r="C16" t="n">
-        <v>473.0040912619326</v>
+        <v>460.228588399884</v>
       </c>
       <c r="D16" t="n">
-        <v>389.1672533106412</v>
+        <v>376.3917504485926</v>
       </c>
       <c r="E16" t="n">
-        <v>305.4047163160375</v>
+        <v>292.6292134539891</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752043</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1444.627927593278</v>
+        <v>1259.509865338165</v>
       </c>
       <c r="U16" t="n">
-        <v>1230.985410981373</v>
+        <v>1045.86734872626</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.958637625472</v>
+        <v>1045.86734872626</v>
       </c>
       <c r="W16" t="n">
-        <v>998.4245107028429</v>
+        <v>834.3332218036312</v>
       </c>
       <c r="X16" t="n">
-        <v>836.1404636320198</v>
+        <v>672.0491747328082</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.8246775948569</v>
+        <v>672.0491747328082</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5595,16 +5595,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,16 +5677,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960405</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343045</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803433</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,25 +5911,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803433</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6008,10 +6008,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829235</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K25" t="n">
-        <v>270.9691711012521</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L25" t="n">
-        <v>435.0968109750519</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133159</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>804.578023344525</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O25" t="n">
-        <v>967.282790386233</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
         <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6254,10 +6254,10 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6266,10 +6266,10 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6312,13 +6312,13 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2134.077005345479</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>700.0178648958361</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614365</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>358.2210070908127</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>841.787092989126</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1469.558742615807</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878066</v>
@@ -6610,7 +6610,7 @@
         <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
         <v>111.518603023284</v>
@@ -6619,16 +6619,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835497</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1722.160576876728</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150703</v>
+        <v>2361.623981089173</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043031</v>
+        <v>2844.723727844784</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174553</v>
+        <v>3192.911219976305</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042572</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>389.2866943029881</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1017.058343929669</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="N33" t="n">
-        <v>1672.836315140228</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652536</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431922</v>
+        <v>86.7304500837419</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>143.5810516071543</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074064</v>
+        <v>225.4160927170962</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076225</v>
+        <v>389.543732590896</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458865</v>
+        <v>575.83531092916</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041659</v>
+        <v>759.0249449603691</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145874</v>
+        <v>1033.38183257706</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250179</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395522</v>
+        <v>835.7257283273674</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000944</v>
+        <v>666.3144371400703</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012442</v>
+        <v>546.1532258045786</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584499</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,25 +7096,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C39" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D39" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>900.7358324498676</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>1220.474978512094</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>1704.041064410407</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1704.041064410407</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1949.449642343508</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2465.969924934489</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2871.591293650886</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R39" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S39" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T39" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U39" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V39" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W39" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X39" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y39" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="40">
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750523</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133163</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P40" t="n">
         <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E41" t="n">
         <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924223</v>
@@ -7439,10 +7439,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7451,10 +7451,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="42">
@@ -7570,25 +7570,25 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>270.9691711012525</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L43" t="n">
-        <v>435.0968109750523</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M43" t="n">
-        <v>621.3883893133163</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N43" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7637,10 +7637,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7667,25 +7667,25 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369568</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072661</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>593.6560140511123</v>
+        <v>499.9530296343038</v>
       </c>
       <c r="N46" t="n">
-        <v>776.8456480823215</v>
+        <v>683.1426636655131</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072211</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964837996</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>576.6102771213914</v>
       </c>
       <c r="N2" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9563753499154</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8061,16 +8061,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>210.3493810477016</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886039</v>
+        <v>162.9122342875678</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8216,25 +8216,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>629.4813513310255</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>243.925819418277</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>462.5560852512503</v>
       </c>
       <c r="N6" t="n">
-        <v>554.0405189317986</v>
+        <v>604.162697308397</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>340.274574506989</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>179.0738312465426</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8766,16 +8766,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M12" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9243,19 +9243,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>663.2434089132776</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,28 +9714,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>117.494503443537</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,7 +9960,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -9969,7 +9969,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>110.5765941352903</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>377.3304183063258</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,22 +10425,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118435</v>
       </c>
       <c r="O33" t="n">
-        <v>168.5060516210923</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>34.51339320661378</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>249.4801068780534</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>30.24717977494199</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901692</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>40.35818564884336</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873668</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>10.78710709021147</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>174.7938956353567</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338907</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>57.14261079168066</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>171.4247337103097</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1215637.963866531</v>
+        <v>1214434.868639011</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1215637.963866531</v>
+        <v>1214434.868639011</v>
       </c>
     </row>
     <row r="4">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90166.08904667837</v>
+        <v>90166.08904667839</v>
       </c>
       <c r="C2" t="n">
         <v>90166.08904667839</v>
       </c>
       <c r="D2" t="n">
-        <v>90166.08904667839</v>
+        <v>90166.0890466784</v>
       </c>
       <c r="E2" t="n">
-        <v>79679.51171220037</v>
+        <v>79679.51171220039</v>
       </c>
       <c r="F2" t="n">
-        <v>79679.51171220039</v>
+        <v>79679.51171220036</v>
       </c>
       <c r="G2" t="n">
-        <v>90166.08904667843</v>
+        <v>90166.08904667842</v>
       </c>
       <c r="H2" t="n">
-        <v>90166.08904667846</v>
+        <v>90166.08904667842</v>
       </c>
       <c r="I2" t="n">
-        <v>90166.08904667843</v>
+        <v>90166.08904667842</v>
       </c>
       <c r="J2" t="n">
         <v>90166.08904667842</v>
       </c>
       <c r="K2" t="n">
-        <v>90166.08904667842</v>
+        <v>90166.08904667843</v>
       </c>
       <c r="L2" t="n">
-        <v>90166.08904667858</v>
+        <v>90166.08904667845</v>
       </c>
       <c r="M2" t="n">
-        <v>90166.08904667846</v>
+        <v>90166.08904667843</v>
       </c>
       <c r="N2" t="n">
-        <v>90166.08904667843</v>
+        <v>90166.08904667845</v>
       </c>
       <c r="O2" t="n">
-        <v>90166.08904667843</v>
+        <v>90166.08904667845</v>
       </c>
       <c r="P2" t="n">
         <v>90166.08904667845</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062187</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668202</v>
+        <v>47425.32553668193</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728556</v>
+        <v>62456.24177539679</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277114</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840229</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840229</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
       </c>
       <c r="E4" t="n">
-        <v>125701.6674923645</v>
+        <v>125701.6674923646</v>
       </c>
       <c r="F4" t="n">
-        <v>125701.6674923645</v>
+        <v>125701.6674923646</v>
       </c>
       <c r="G4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="H4" t="n">
         <v>173460.5839839468</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369408.0698692143</v>
+        <v>-365056.6240549194</v>
       </c>
       <c r="C6" t="n">
-        <v>-187203.1215773583</v>
+        <v>-191197.9670208644</v>
       </c>
       <c r="D6" t="n">
-        <v>-194371.4425990297</v>
+        <v>-202107.7318224214</v>
       </c>
       <c r="E6" t="n">
-        <v>-211330.7369540492</v>
+        <v>-211540.4685007389</v>
       </c>
       <c r="F6" t="n">
-        <v>-99208.17548000463</v>
+        <v>-99417.90702669433</v>
       </c>
       <c r="G6" t="n">
-        <v>-188889.58978947</v>
+        <v>-188889.5897894699</v>
       </c>
       <c r="H6" t="n">
         <v>-141464.264252788</v>
@@ -26543,25 +26543,25 @@
         <v>-141464.264252788</v>
       </c>
       <c r="J6" t="n">
-        <v>-354506.1818500736</v>
+        <v>-347989.8966955003</v>
       </c>
       <c r="K6" t="n">
-        <v>-147704.032655571</v>
+        <v>-147704.0326555709</v>
       </c>
       <c r="L6" t="n">
-        <v>-202886.621590192</v>
+        <v>-206935.4588006644</v>
       </c>
       <c r="M6" t="n">
-        <v>-183665.093712411</v>
+        <v>-184716.7887235992</v>
       </c>
       <c r="N6" t="n">
         <v>-141464.264252788</v>
       </c>
       <c r="O6" t="n">
-        <v>-169231.9582955591</v>
+        <v>-169231.9582955592</v>
       </c>
       <c r="P6" t="n">
-        <v>-141464.264252788</v>
+        <v>-141464.2642527881</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,22 +26805,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="I4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="J4" t="n">
+        <v>917.0607368443782</v>
+      </c>
+      <c r="K4" t="n">
+        <v>917.0607368443782</v>
+      </c>
+      <c r="L4" t="n">
+        <v>844.4391950293135</v>
+      </c>
+      <c r="M4" t="n">
         <v>776.4890963014441</v>
-      </c>
-      <c r="I4" t="n">
-        <v>776.4890963014441</v>
-      </c>
-      <c r="J4" t="n">
-        <v>917.0607368443783</v>
-      </c>
-      <c r="K4" t="n">
-        <v>917.0607368443783</v>
-      </c>
-      <c r="L4" t="n">
-        <v>869.3443530095205</v>
-      </c>
-      <c r="M4" t="n">
-        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660695</v>
+        <v>78.07030221924599</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155135</v>
+        <v>17.58004954287438</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407265</v>
+        <v>117.1268713042796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>47.03661030212676</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>56.1204346046996</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27464,13 +27464,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>39.78297167134863</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>185.1777423863153</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>36.10804475146625</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27552,7 +27552,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>87.89226682802021</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27622,19 +27622,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>210.3466426175247</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.10314087591267</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>9.963768703234592</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>124.5704364758562</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27783,19 +27783,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>26.22992713354429</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.4375145838893</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27828,19 +27828,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>238.6900019889395</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>280.399341490406</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28023,7 +28023,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -28068,16 +28068,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>134.0790444979101</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>155.6665678223397</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -28749,13 +28749,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.63600263452858</v>
+        <v>5.636002634529092</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28983,10 +28983,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5.63600263452912</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28998,13 +28998,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29053,7 +29053,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
         <v>130.3599693155844</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="R23" t="n">
         <v>37.61298457733328</v>
@@ -29217,10 +29217,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.7104901066881</v>
       </c>
       <c r="K25" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,7 +29296,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
         <v>93.99127447431646</v>
@@ -29305,19 +29305,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>30.27223765901221</v>
       </c>
       <c r="P26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29533,19 +29533,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K29" t="n">
-        <v>30.27223765901266</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
+        <v>30.27223765901226</v>
+      </c>
+      <c r="N29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>86.27291196566648</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>43.4950968315988</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.8683420224714</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861254176</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30168,20 +30168,20 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,16 +30402,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>28.01250026485212</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
-        <v>28.01250026485259</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
@@ -30876,28 +30876,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5.636002634527927</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>35.71049010668801</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -34699,25 +34699,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344373</v>
+        <v>426.8852255236641</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>250.392537925819</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>117.9622589983897</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344373</v>
+        <v>77.54012143340117</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34936,25 +34936,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>479.7562997332983</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>94.80732808049289</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>370.1689632019384</v>
       </c>
       <c r="N6" t="n">
-        <v>468.668406077632</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>93.70171839237591</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M12" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257281</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257281</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,10 +35899,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>570.8562868639657</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36045,13 +36045,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565486</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>35.0500461102036</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.63600263452903</v>
       </c>
       <c r="K25" t="n">
-        <v>210.9596397950874</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,19 +36601,19 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>474.7566830047985</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700718</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36680,7 +36680,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>23.49322931597565</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>392.8806780907923</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7334829729924</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682818</v>
+        <v>611.083244740921</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>619.4156227105776</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>487.9795421773851</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227376</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="O33" t="n">
-        <v>75.81849273220344</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.2619698279118</v>
+        <v>76.79385455031236</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345617</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097889</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457873</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37464,19 +37464,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133907</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>294.0834769302979</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>216.1858117176441</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
-        <v>110.6741579516626</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38181,19 +38181,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873199</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>200.0587396437669</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
